--- a/Code/Results/Cases/Case_8_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.73001283563811</v>
+        <v>20.42507800635391</v>
       </c>
       <c r="C2">
-        <v>16.81823853644601</v>
+        <v>17.29099072022313</v>
       </c>
       <c r="D2">
-        <v>3.967813857430677</v>
+        <v>4.043201204772807</v>
       </c>
       <c r="E2">
-        <v>29.40023964681347</v>
+        <v>29.37985918040328</v>
       </c>
       <c r="F2">
-        <v>20.13741713852439</v>
+        <v>19.67352446362218</v>
       </c>
       <c r="G2">
-        <v>2.066655413433126</v>
+        <v>2.663823964780715</v>
       </c>
       <c r="H2">
-        <v>3.275217213488359</v>
+        <v>3.262705379920237</v>
       </c>
       <c r="I2">
-        <v>3.465405535007181</v>
+        <v>3.451348726025922</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.54925847616134</v>
+        <v>12.17736423968687</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.34849484670607</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.788898187362043</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.78126999306291</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.7340825186711</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>11.85562840414366</v>
+      </c>
+      <c r="S2">
+        <v>15.35880714760395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.36983102342323</v>
+        <v>19.12796675735558</v>
       </c>
       <c r="C3">
-        <v>15.79509770826186</v>
+        <v>16.19920380616674</v>
       </c>
       <c r="D3">
-        <v>3.841508482960617</v>
+        <v>3.886957086140926</v>
       </c>
       <c r="E3">
-        <v>27.52770532867496</v>
+        <v>27.53496069116643</v>
       </c>
       <c r="F3">
-        <v>19.3306189650573</v>
+        <v>18.90659817243106</v>
       </c>
       <c r="G3">
-        <v>2.071051588113267</v>
+        <v>2.096406263885206</v>
       </c>
       <c r="H3">
-        <v>3.027362264913896</v>
+        <v>3.031743470508036</v>
       </c>
       <c r="I3">
-        <v>3.304316496076808</v>
+        <v>3.320520942556657</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.55257069470226</v>
+        <v>12.19679300140733</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.48375829834493</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.650492218202958</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.83932756934756</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.29745867723649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>11.87524825361172</v>
+      </c>
+      <c r="S3">
+        <v>14.94371804445518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.48176647519852</v>
+        <v>18.28085602902324</v>
       </c>
       <c r="C4">
-        <v>15.13593763224279</v>
+        <v>15.49547571739871</v>
       </c>
       <c r="D4">
-        <v>3.76117739276231</v>
+        <v>3.78733980562581</v>
       </c>
       <c r="E4">
-        <v>26.31406683542706</v>
+        <v>26.33919148299817</v>
       </c>
       <c r="F4">
-        <v>18.8275255182455</v>
+        <v>18.4246103065974</v>
       </c>
       <c r="G4">
-        <v>2.073836948238093</v>
+        <v>1.736559399275712</v>
       </c>
       <c r="H4">
-        <v>2.869882438544688</v>
+        <v>2.884859441738576</v>
       </c>
       <c r="I4">
-        <v>3.20267278116052</v>
+        <v>3.238057712755217</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.55977231953715</v>
+        <v>12.21118114841584</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.56789997520005</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.589192773535812</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.87773993150645</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.0298784262747</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>11.89022851036058</v>
+      </c>
+      <c r="S4">
+        <v>14.68599049769418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.10107784594914</v>
+        <v>17.91749568970269</v>
       </c>
       <c r="C5">
-        <v>14.86857959830315</v>
+        <v>15.2094535908751</v>
       </c>
       <c r="D5">
-        <v>3.728895327742169</v>
+        <v>3.747004712212395</v>
       </c>
       <c r="E5">
-        <v>25.80317819882872</v>
+        <v>25.8358757263488</v>
       </c>
       <c r="F5">
-        <v>18.61288688701773</v>
+        <v>18.21767516682126</v>
       </c>
       <c r="G5">
-        <v>2.07500048549511</v>
+        <v>1.586137213761693</v>
       </c>
       <c r="H5">
-        <v>2.80420324422122</v>
+        <v>2.823578461996649</v>
       </c>
       <c r="I5">
-        <v>3.160818096247825</v>
+        <v>3.20441298365702</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.55827590419828</v>
+        <v>12.21213113927734</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.59777512420052</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.566703841412213</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.895138457303</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.9147099140796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>11.89820009218653</v>
+      </c>
+      <c r="S5">
+        <v>14.57397718444182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.03039880574157</v>
+        <v>17.84979934632348</v>
       </c>
       <c r="C6">
-        <v>14.8347131186423</v>
+        <v>15.17254501559091</v>
       </c>
       <c r="D6">
-        <v>3.724882158484758</v>
+        <v>3.741673261716588</v>
       </c>
       <c r="E6">
-        <v>25.71706767878958</v>
+        <v>25.75107941465532</v>
       </c>
       <c r="F6">
-        <v>18.56741391934246</v>
+        <v>18.17342230090837</v>
       </c>
       <c r="G6">
-        <v>2.075202839280021</v>
+        <v>1.559940817386791</v>
       </c>
       <c r="H6">
-        <v>2.793032245161167</v>
+        <v>2.813166260787873</v>
       </c>
       <c r="I6">
-        <v>3.154327669417295</v>
+        <v>3.199621375884611</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.55117350117582</v>
+        <v>12.20561451143334</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.59702785621665</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.558906249895398</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.89937944431622</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.88781634788313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>11.90097521175572</v>
+      </c>
+      <c r="S6">
+        <v>14.54755871459536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.45893347118681</v>
+        <v>18.23786473634971</v>
       </c>
       <c r="C7">
-        <v>15.16173493223244</v>
+        <v>15.48642201486141</v>
       </c>
       <c r="D7">
-        <v>3.764508941778991</v>
+        <v>3.799016738404458</v>
       </c>
       <c r="E7">
-        <v>26.30642070429444</v>
+        <v>26.32995694624362</v>
       </c>
       <c r="F7">
-        <v>18.79839288472935</v>
+        <v>18.3406516512022</v>
       </c>
       <c r="G7">
-        <v>2.073873501456529</v>
+        <v>1.749906911916062</v>
       </c>
       <c r="H7">
-        <v>2.868511655576121</v>
+        <v>2.882544569254422</v>
       </c>
       <c r="I7">
-        <v>3.203193524183533</v>
+        <v>3.237986821575621</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.54082860115152</v>
+        <v>12.17203634276539</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.5354936318558</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.561853296474704</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.88162814525142</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.0072457890847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>11.89899074735014</v>
+      </c>
+      <c r="S7">
+        <v>14.61957133866182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.25028156312835</v>
+        <v>19.90360439411761</v>
       </c>
       <c r="C8">
-        <v>16.508016265442</v>
+        <v>16.850099273068</v>
       </c>
       <c r="D8">
-        <v>3.929712673015165</v>
+        <v>4.022247966432134</v>
       </c>
       <c r="E8">
-        <v>28.76683468948552</v>
+        <v>28.75044452083605</v>
       </c>
       <c r="F8">
-        <v>19.82791991276145</v>
+        <v>19.20486453855345</v>
       </c>
       <c r="G8">
-        <v>2.068179784543112</v>
+        <v>2.703656182343983</v>
       </c>
       <c r="H8">
-        <v>3.190226260622345</v>
+        <v>3.180209844296678</v>
       </c>
       <c r="I8">
-        <v>3.411481289240284</v>
+        <v>3.403918654503622</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.52430099648546</v>
+        <v>12.09130673318755</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.32321570304103</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.664121134909602</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.80587233811592</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.556522560881</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>11.88435370866307</v>
+      </c>
+      <c r="S8">
+        <v>15.04897433318302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.37384164843906</v>
+        <v>22.87270785507268</v>
       </c>
       <c r="C9">
-        <v>18.85405135996032</v>
+        <v>19.33735117321264</v>
       </c>
       <c r="D9">
-        <v>4.224356813229037</v>
+        <v>4.391976526322613</v>
       </c>
       <c r="E9">
-        <v>33.08724861758414</v>
+        <v>33.00465589672005</v>
       </c>
       <c r="F9">
-        <v>21.81886070443243</v>
+        <v>21.049511226139</v>
       </c>
       <c r="G9">
-        <v>2.057642308040749</v>
+        <v>3.985827989402431</v>
       </c>
       <c r="H9">
-        <v>3.781015589041067</v>
+        <v>3.729134650667715</v>
       </c>
       <c r="I9">
-        <v>3.797914991808469</v>
+        <v>3.71600325459719</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.56965356925129</v>
+        <v>12.06226741773736</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.0034913868668</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.12348097965428</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.67291795711479</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>16.66919963228789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.85473424261449</v>
+      </c>
+      <c r="S9">
+        <v>16.06203890284383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.36033422860601</v>
+        <v>24.66831594992719</v>
       </c>
       <c r="C10">
-        <v>20.36674679961731</v>
+        <v>20.77491365383526</v>
       </c>
       <c r="D10">
-        <v>4.451652847116759</v>
+        <v>4.712925900494546</v>
       </c>
       <c r="E10">
-        <v>35.07770488283034</v>
+        <v>34.94148438914412</v>
       </c>
       <c r="F10">
-        <v>23.08506871307</v>
+        <v>21.93831505126839</v>
       </c>
       <c r="G10">
-        <v>2.050510244635293</v>
+        <v>5.663236990520049</v>
       </c>
       <c r="H10">
-        <v>4.154111695393229</v>
+        <v>4.068094457402375</v>
       </c>
       <c r="I10">
-        <v>4.06306494559071</v>
+        <v>3.923445584812288</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.56523244281074</v>
+        <v>11.88217089158848</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.66103071065202</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.393248211135522</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.61140287717826</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.36421005684427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.90482489942236</v>
+      </c>
+      <c r="S10">
+        <v>16.45479291352518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.76374911767076</v>
+        <v>24.87818272740879</v>
       </c>
       <c r="C11">
-        <v>20.45085307758093</v>
+        <v>20.4973909358083</v>
       </c>
       <c r="D11">
-        <v>4.766745852295039</v>
+        <v>5.143071174779804</v>
       </c>
       <c r="E11">
-        <v>28.46743581191198</v>
+        <v>28.29961359797574</v>
       </c>
       <c r="F11">
-        <v>22.49625475670834</v>
+        <v>20.79511476353621</v>
       </c>
       <c r="G11">
-        <v>2.049186315035421</v>
+        <v>8.763182649606666</v>
       </c>
       <c r="H11">
-        <v>4.506044286150339</v>
+        <v>4.416924834031103</v>
       </c>
       <c r="I11">
-        <v>4.121684350764508</v>
+        <v>3.959159849495456</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.02626649084443</v>
+        <v>11.16422780353484</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.11653432467121</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.915198222040949</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.76878210179869</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.72103030800962</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.17927281118353</v>
+      </c>
+      <c r="S11">
+        <v>15.36285502575052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.72322077105968</v>
+        <v>24.76856271213038</v>
       </c>
       <c r="C12">
-        <v>20.18277065127605</v>
+        <v>20.03567305845767</v>
       </c>
       <c r="D12">
-        <v>4.985543603096925</v>
+        <v>5.414688352378778</v>
       </c>
       <c r="E12">
-        <v>22.51529064881245</v>
+        <v>22.32754498775282</v>
       </c>
       <c r="F12">
-        <v>21.75400047753052</v>
+        <v>19.82717552992371</v>
       </c>
       <c r="G12">
-        <v>2.049323459072041</v>
+        <v>10.42284486018477</v>
       </c>
       <c r="H12">
-        <v>5.308980949132096</v>
+        <v>5.234428631172279</v>
       </c>
       <c r="I12">
-        <v>4.119957375600727</v>
+        <v>3.952245381221405</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.5965355946502</v>
+        <v>10.70480881046752</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.811511724415297</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.535926535484761</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.91595119069481</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>16.04636633518906</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.38161595960054</v>
+      </c>
+      <c r="S12">
+        <v>14.51481192838887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.31824279623062</v>
+        <v>24.42350316090395</v>
       </c>
       <c r="C13">
-        <v>19.65592074307055</v>
+        <v>19.49265595190406</v>
       </c>
       <c r="D13">
-        <v>5.151239618958881</v>
+        <v>5.563108761642403</v>
       </c>
       <c r="E13">
-        <v>16.60054994741045</v>
+        <v>16.39738492955662</v>
       </c>
       <c r="F13">
-        <v>20.79425449126863</v>
+        <v>18.99275520397856</v>
       </c>
       <c r="G13">
-        <v>2.050614200965947</v>
+        <v>9.9743684549615</v>
       </c>
       <c r="H13">
-        <v>6.327959756230664</v>
+        <v>6.272227525287109</v>
       </c>
       <c r="I13">
-        <v>4.073898819528986</v>
+        <v>3.917378059058215</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.19636283542016</v>
+        <v>10.42209452910387</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.653204563143818</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.229340742703781</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.06547908418305</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.26474876918299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.51622633854577</v>
+      </c>
+      <c r="S13">
+        <v>13.8514488694836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.86079186704579</v>
+        <v>24.06530695050203</v>
       </c>
       <c r="C14">
-        <v>19.17158501139052</v>
+        <v>19.07318518390257</v>
       </c>
       <c r="D14">
-        <v>5.245678825049494</v>
+        <v>5.612862209112073</v>
       </c>
       <c r="E14">
-        <v>12.54370022143339</v>
+        <v>12.32567961002033</v>
       </c>
       <c r="F14">
-        <v>20.00715723387439</v>
+        <v>18.44761302389893</v>
       </c>
       <c r="G14">
-        <v>2.052019866845708</v>
+        <v>8.722804746418657</v>
       </c>
       <c r="H14">
-        <v>7.126891149508806</v>
+        <v>7.083439107033416</v>
       </c>
       <c r="I14">
-        <v>4.022945481985761</v>
+        <v>3.88151183310689</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.92785454717568</v>
+        <v>10.29202638182214</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.595875746047753</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.041508601232229</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.17190441346239</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.65867980719293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.57926283080552</v>
+      </c>
+      <c r="S14">
+        <v>13.45345361631405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.66372183675299</v>
+        <v>23.91748952261526</v>
       </c>
       <c r="C15">
-        <v>19.00446639301982</v>
+        <v>18.95462722550176</v>
       </c>
       <c r="D15">
-        <v>5.258531932665417</v>
+        <v>5.600762156440776</v>
       </c>
       <c r="E15">
-        <v>11.57218662596642</v>
+        <v>11.35358716677234</v>
       </c>
       <c r="F15">
-        <v>19.75999182349262</v>
+        <v>18.32545427706778</v>
       </c>
       <c r="G15">
-        <v>2.052642243042384</v>
+        <v>8.02647119152658</v>
       </c>
       <c r="H15">
-        <v>7.310994610920337</v>
+        <v>7.271138290883584</v>
       </c>
       <c r="I15">
-        <v>4.001086268146834</v>
+        <v>3.867210959342223</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.86398727237401</v>
+        <v>10.2852622282752</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.602241587775953</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.002953172836515</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.1989603512599</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.48230892729706</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.5817474545624</v>
+      </c>
+      <c r="S15">
+        <v>13.38073065079852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.89675051180562</v>
+        <v>23.36213264652392</v>
       </c>
       <c r="C16">
-        <v>18.46878120230991</v>
+        <v>18.69029762026374</v>
       </c>
       <c r="D16">
-        <v>5.138354983011642</v>
+        <v>5.363993527703307</v>
       </c>
       <c r="E16">
-        <v>11.4595117078904</v>
+        <v>11.29092735147011</v>
       </c>
       <c r="F16">
-        <v>19.34929846750727</v>
+        <v>18.46124212306061</v>
       </c>
       <c r="G16">
-        <v>2.055393835339904</v>
+        <v>5.057615654749849</v>
       </c>
       <c r="H16">
-        <v>7.034296059292664</v>
+        <v>7.003726206604455</v>
       </c>
       <c r="I16">
-        <v>3.899831721623625</v>
+        <v>3.798516280027374</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.93828568038205</v>
+        <v>10.55039325158117</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.820212487500459</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.098269505838057</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.183685698265</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.30223847052703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.45009974061539</v>
+      </c>
+      <c r="S16">
+        <v>13.63672914691791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.54986928973685</v>
+        <v>23.100423518286</v>
       </c>
       <c r="C17">
-        <v>18.31989278624778</v>
+        <v>18.67622320142163</v>
       </c>
       <c r="D17">
-        <v>4.99283960708213</v>
+        <v>5.168705151911769</v>
       </c>
       <c r="E17">
-        <v>13.56153534877239</v>
+        <v>13.4324486038615</v>
       </c>
       <c r="F17">
-        <v>19.46774526576242</v>
+        <v>18.79897954792328</v>
       </c>
       <c r="G17">
-        <v>2.056783444161634</v>
+        <v>4.142235593764556</v>
       </c>
       <c r="H17">
-        <v>6.346736440169934</v>
+        <v>6.318159378593076</v>
       </c>
       <c r="I17">
-        <v>3.848591486018174</v>
+        <v>3.763076329525777</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.1361912509334</v>
+        <v>10.80551533286292</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.01905703546188</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.245899653341284</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.11766239718801</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.49508411388981</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.33363289044196</v>
+      </c>
+      <c r="S17">
+        <v>13.99871006348034</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.55156292236299</v>
+        <v>23.119729725575</v>
       </c>
       <c r="C18">
-        <v>18.47958707201602</v>
+        <v>18.92382228110081</v>
       </c>
       <c r="D18">
-        <v>4.808110388620057</v>
+        <v>4.9671649746171</v>
       </c>
       <c r="E18">
-        <v>18.11571739888112</v>
+        <v>18.01150245638156</v>
       </c>
       <c r="F18">
-        <v>20.07077975480958</v>
+        <v>19.46398997250476</v>
       </c>
       <c r="G18">
-        <v>2.057031351801813</v>
+        <v>3.940660144238127</v>
       </c>
       <c r="H18">
-        <v>5.316143780415079</v>
+        <v>5.283023377411602</v>
       </c>
       <c r="I18">
-        <v>3.835713806462834</v>
+        <v>3.753677256325313</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.4765054560284</v>
+        <v>11.13361883621782</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.2561519553004</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.500407936644148</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.99850679078453</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.04112384350836</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.19592731726257</v>
+      </c>
+      <c r="S18">
+        <v>14.58721072775095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.81033577929104</v>
+        <v>23.3547211929206</v>
       </c>
       <c r="C19">
-        <v>18.92473490042474</v>
+        <v>19.43616107070393</v>
       </c>
       <c r="D19">
-        <v>4.616840439405038</v>
+        <v>4.778322458775719</v>
       </c>
       <c r="E19">
-        <v>24.38691322781508</v>
+        <v>24.29063363454734</v>
       </c>
       <c r="F19">
-        <v>20.96449252241888</v>
+        <v>20.33211038888606</v>
       </c>
       <c r="G19">
-        <v>2.056219121240089</v>
+        <v>4.015816840183843</v>
       </c>
       <c r="H19">
-        <v>4.34428594025115</v>
+        <v>4.299152138026411</v>
       </c>
       <c r="I19">
-        <v>3.864187358871852</v>
+        <v>3.777775723718662</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.87981234685973</v>
+        <v>11.48693621876251</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.50001801587799</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.81073731840906</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.85909740796777</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.78883763678365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.05711139796141</v>
+      </c>
+      <c r="S19">
+        <v>15.30821685310967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.80998953013987</v>
+        <v>24.22490542381578</v>
       </c>
       <c r="C20">
-        <v>20.04777792840907</v>
+        <v>20.57439305619454</v>
       </c>
       <c r="D20">
-        <v>4.404871070636475</v>
+        <v>4.614572933531274</v>
       </c>
       <c r="E20">
-        <v>34.52527999114319</v>
+        <v>34.40844845424414</v>
       </c>
       <c r="F20">
-        <v>22.68176016156502</v>
+        <v>21.7995672866995</v>
       </c>
       <c r="G20">
-        <v>2.052422939531641</v>
+        <v>4.70175547027283</v>
       </c>
       <c r="H20">
-        <v>4.053765023903951</v>
+        <v>3.980085826627452</v>
       </c>
       <c r="I20">
-        <v>3.99868155152472</v>
+        <v>3.882082166905978</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.50362886685024</v>
+        <v>11.94358896821083</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.75909621199711</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.332243013298058</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.64110102188624</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>17.11943835475415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.88463405959148</v>
+      </c>
+      <c r="S20">
+        <v>16.42853824386332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.34568642051775</v>
+        <v>25.3195849819981</v>
       </c>
       <c r="C21">
-        <v>21.25321685198914</v>
+        <v>21.231985420552</v>
       </c>
       <c r="D21">
-        <v>4.534741389944422</v>
+        <v>4.961013145363071</v>
       </c>
       <c r="E21">
-        <v>37.32706040368363</v>
+        <v>37.14386504475711</v>
       </c>
       <c r="F21">
-        <v>23.8524874358095</v>
+        <v>21.82156038895274</v>
       </c>
       <c r="G21">
-        <v>2.046693717345134</v>
+        <v>10.35985842079682</v>
       </c>
       <c r="H21">
-        <v>4.392405178293805</v>
+        <v>4.275554453045121</v>
       </c>
       <c r="I21">
-        <v>4.209670971574164</v>
+        <v>4.02376737798507</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.61593676812018</v>
+        <v>11.52878274371578</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.33364749589903</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.295546341874553</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.56738243188515</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.83058289908378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.01846119880109</v>
+      </c>
+      <c r="S21">
+        <v>16.18222992925603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.29483246409047</v>
+        <v>25.97547071075093</v>
       </c>
       <c r="C22">
-        <v>21.94975970070282</v>
+        <v>21.55016352413417</v>
       </c>
       <c r="D22">
-        <v>4.624784125686745</v>
+        <v>5.202221279471885</v>
       </c>
       <c r="E22">
-        <v>38.65011810945254</v>
+        <v>38.4255059987099</v>
       </c>
       <c r="F22">
-        <v>24.56456734857036</v>
+        <v>21.74478277415666</v>
       </c>
       <c r="G22">
-        <v>2.043102209677222</v>
+        <v>15.17308143434535</v>
       </c>
       <c r="H22">
-        <v>4.59078184875609</v>
+        <v>4.447103808782211</v>
       </c>
       <c r="I22">
-        <v>4.339964820207886</v>
+        <v>4.109367375515481</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.68987906834482</v>
+        <v>11.22978266649006</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.05381732179013</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.246699749831461</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.5258516749569</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>18.26043079491322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.12996105232499</v>
+      </c>
+      <c r="S22">
+        <v>15.94662891036073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.80752803287606</v>
+        <v>25.68324086224117</v>
       </c>
       <c r="C23">
-        <v>21.55492507831475</v>
+        <v>21.42371311263755</v>
       </c>
       <c r="D23">
-        <v>4.573065561491238</v>
+        <v>5.049039281519372</v>
       </c>
       <c r="E23">
-        <v>37.94965807750447</v>
+        <v>37.74957629487012</v>
       </c>
       <c r="F23">
-        <v>24.2102926066879</v>
+        <v>21.92695108639871</v>
       </c>
       <c r="G23">
-        <v>2.044994267941811</v>
+        <v>11.84007142199024</v>
       </c>
       <c r="H23">
-        <v>4.485704596791073</v>
+        <v>4.357929947264695</v>
       </c>
       <c r="I23">
-        <v>4.268694322348606</v>
+        <v>4.063143395006179</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.67157567756232</v>
+        <v>11.45941359835859</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.24313703772821</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.339251493299202</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.54226683357392</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>18.05221497015896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.04548621492339</v>
+      </c>
+      <c r="S23">
+        <v>16.19107845859045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.84934581974981</v>
+        <v>24.26426261594993</v>
       </c>
       <c r="C24">
-        <v>20.04350090488141</v>
+        <v>20.57980208096198</v>
       </c>
       <c r="D24">
-        <v>4.377410010276733</v>
+        <v>4.585734354340422</v>
       </c>
       <c r="E24">
-        <v>35.18674514441577</v>
+        <v>35.06976073670167</v>
       </c>
       <c r="F24">
-        <v>22.80610378366393</v>
+        <v>21.9281624592564</v>
       </c>
       <c r="G24">
-        <v>2.052306028506301</v>
+        <v>4.695306836973421</v>
       </c>
       <c r="H24">
-        <v>4.079596515401295</v>
+        <v>4.005517012537905</v>
       </c>
       <c r="I24">
-        <v>3.997875130650076</v>
+        <v>3.87892570506301</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.58259717269113</v>
+        <v>12.01790155320511</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.81093155828365</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.394860862005396</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.61934210376759</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.22704126477903</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.86050195278552</v>
+      </c>
+      <c r="S24">
+        <v>16.53885487628627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.54643337468126</v>
+        <v>22.11041672217795</v>
       </c>
       <c r="C25">
-        <v>18.29072868726391</v>
+        <v>18.78095324729132</v>
       </c>
       <c r="D25">
-        <v>4.153590831366694</v>
+        <v>4.290636146785504</v>
       </c>
       <c r="E25">
-        <v>31.97109620204073</v>
+        <v>31.90832832361265</v>
       </c>
       <c r="F25">
-        <v>21.24718006102037</v>
+        <v>20.58983337771492</v>
       </c>
       <c r="G25">
-        <v>2.060458289037142</v>
+        <v>3.508067665964686</v>
       </c>
       <c r="H25">
-        <v>3.624621975573036</v>
+        <v>3.585410462566416</v>
       </c>
       <c r="I25">
-        <v>3.69771659088901</v>
+        <v>3.639153041575803</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.51831072321042</v>
+        <v>12.06457412390536</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.08724809047085</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.978731096708669</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.71396372959589</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.3338185270752</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.86049585869867</v>
+      </c>
+      <c r="S25">
+        <v>15.81406896434423</v>
       </c>
     </row>
   </sheetData>
